--- a/src/attributions/attributions_ig_traj_469.xlsx
+++ b/src/attributions/attributions_ig_traj_469.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG14"/>
+  <dimension ref="A1:GG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,19 +1004,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.2690090356215627</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1263999538756169</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.004134989632941627</v>
+        <v>-0.02637554088426717</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1025,79 +1025,79 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.06805068790396243</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0.1123383354557997</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.3206001098124467</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2040775467245934</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03865830178668923</v>
+        <v>-0.06308260878671244</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1579716377083472</v>
+        <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0.2241744423607865</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.1129548185232716</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.01369092120392875</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.02864441305879341</v>
+        <v>0.007135033394147983</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.02457100702122626</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>-0.03623904984095647</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>0.1030346890673349</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.003428431909363352</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
         <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.03775862532493173</v>
+        <v>-0.1080479373519222</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -1106,79 +1106,79 @@
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.01876288235340293</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>-0.02482966677512236</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>0.06240129674679108</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.04871534402037542</v>
+        <v>-0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.07914865541403551</v>
+        <v>-0.06569997225691067</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.007144700844639652</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0.04415961339280109</v>
       </c>
       <c r="AT2" t="n">
         <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0</v>
+        <v>0.4641554599921712</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1428033059714615</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
         <v>-0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01200963475244458</v>
+        <v>0.1835073805560317</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.2098643664884926</v>
+        <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0.1264633796800418</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>0.02134976217451304</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.03188437888274026</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.04108740342697099</v>
+        <v>-0.06689558345129387</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1187,187 +1187,187 @@
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.01146370576775503</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
+        <v>-0.09391921776469778</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>0.006476634408454984</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.05213158006441597</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
         <v>-0</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.05528789653583038</v>
+        <v>0.2371793715031392</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.08546387083587106</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0</v>
+        <v>0.05467576975080499</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.2722343885733226</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.08382689720961252</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.01978445803928009</v>
+        <v>0.02834383154614473</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.06490656157554191</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>-0.01288832257468495</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.1051462076830022</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.05691661799604724</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
         <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.007220358036610116</v>
+        <v>0.003534433938428292</v>
       </c>
       <c r="CI2" t="n">
         <v>-0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.04220457912812645</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0.08455035391483008</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>-0.0256699323857791</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.02534677103452353</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0503585239053061</v>
+        <v>-0.06898804015887712</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.01820299030207533</v>
+        <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0.008830447320033496</v>
       </c>
       <c r="CV2" t="n">
         <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>-0.1081027698394665</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.05588473420520877</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.008596957666418123</v>
+        <v>-0.00522312759173923</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.03556213694510224</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>0.05825408263053589</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.1476767009123628</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.01643943405451495</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.1052649664235801</v>
+        <v>0.08503129823391828</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.05014137923364239</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>0.04289698329109538</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.03075852568812498</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.02227082356731956</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.0007435442082800428</v>
+        <v>-0.06001691410144295</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1376,199 +1376,199 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.008401922824043303</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0.02413756164726932</v>
       </c>
       <c r="DW2" t="n">
         <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0.1996332817378985</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.01003702267515483</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
         <v>-0</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.01452964032478377</v>
+        <v>-0.0008513228680456251</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.03957880897875456</v>
+        <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>-0.02326533694814667</v>
       </c>
       <c r="EF2" t="n">
         <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.05250484643517359</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.0412019873225963</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
         <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.05775324767196702</v>
+        <v>0.04512827807598933</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.06277104820984393</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>0.1222390620336054</v>
       </c>
       <c r="EO2" t="n">
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0</v>
+        <v>-0.0583947550744899</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.009993401675133264</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.04634722677160294</v>
+        <v>-0.0355166459155681</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.01644155668263126</v>
+        <v>-0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0</v>
+        <v>0.05409069200646025</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.1144069312974093</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.06134147597064498</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.001876710337186913</v>
+        <v>0.001491313125920189</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0346212347631386</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0.05586383080367818</v>
       </c>
       <c r="FG2" t="n">
         <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>-0.01562846512879318</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.08101686981027581</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0079884016643668</v>
+        <v>-0.05347959775200992</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.005990072113723092</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0.007900361801987587</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0</v>
+        <v>-0.003235808986746197</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.02089563666481269</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
         <v>-0</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.002508457709099974</v>
+        <v>0.01402584999415574</v>
       </c>
       <c r="FU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV2" t="n">
         <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.02523142839138169</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>-0.04078279203365184</v>
       </c>
       <c r="FY2" t="n">
         <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0</v>
+        <v>-0.08470893706531565</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0242395180272536</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
         <v>-0</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
         <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.08224731302817458</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0.04196394480333632</v>
       </c>
     </row>
     <row r="3">
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -1738,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
         <v>0</v>
@@ -1792,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
@@ -1981,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
@@ -2035,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2226,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -2307,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
         <v>0</v>
@@ -2711,28 +2711,28 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1737140760692959</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1964131205580409</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03069385970188634</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02729217367070947</v>
+        <v>-0.01884553871126724</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0.1582922978418645</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2741,22 +2741,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.1806129855554133</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3064811538722098</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0666309320857832</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06906824719669041</v>
+        <v>-0.02794389860530046</v>
       </c>
       <c r="O5" t="n">
         <v>-0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0.2082750794941135</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
@@ -2765,52 +2765,52 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.09090449934639262</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03450278938100516</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02441877096423605</v>
+        <v>-0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.07726489796194902</v>
+        <v>0.2093959071977421</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0.1149997161091573</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.1366696514026354</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.01125449242270418</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.002477262628350707</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.08260563774764657</v>
+        <v>-0.07029635191886457</v>
       </c>
       <c r="AG5" t="n">
         <v>-0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>-0.04621653821806405</v>
       </c>
       <c r="AI5" t="n">
         <v>-0</v>
@@ -2819,28 +2819,28 @@
         <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0.01564571025880914</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.04611401927658403</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.000328364952955436</v>
+        <v>-0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.03925454795019713</v>
+        <v>0.0232933327149728</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>-0.04254466202878743</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>-0</v>
@@ -2849,52 +2849,52 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.2521967869046079</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.163627226329027</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.01969935983467934</v>
+        <v>-0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.05288075123197379</v>
+        <v>0.1003878025029373</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>-0.2383136482257326</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
         <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.0387817606377686</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.03985807046136349</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.02421783335650753</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.051500163566115</v>
+        <v>-0.02190229594871177</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0.03739635802762917</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
@@ -2903,49 +2903,49 @@
         <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>-0.01355176047936952</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0.09937335063278956</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0.03067675222596029</v>
+        <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.1026594217486905</v>
+        <v>0.1732292063443753</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0</v>
+        <v>0.06729305073319519</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.09827352685187418</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.07258967506583466</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.02074231378770884</v>
+        <v>-0</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.007945422023748329</v>
+        <v>0.1098682902855702</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0</v>
+        <v>-0.1424800481727548</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
@@ -2954,28 +2954,28 @@
         <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.07193390622760323</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0.06851412598695683</v>
+        <v>-0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.02336657624921229</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.01382994219035512</v>
+        <v>0.03890901710456447</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0</v>
+        <v>0.05450850098507287</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
@@ -2984,52 +2984,52 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.06830904595844711</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.04488166686826101</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.01842417163299625</v>
+        <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.02412834898611778</v>
+        <v>-0.0423383557637665</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0</v>
+        <v>-0.04333254231908479</v>
       </c>
       <c r="CT5" t="n">
         <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.04886765219026017</v>
       </c>
       <c r="CX5" t="n">
-        <v>-0.05829857534469383</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.01837108269429256</v>
+        <v>-0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.005422262150483897</v>
+        <v>0.02064303465692164</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0.05828837948056111</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
@@ -3038,130 +3038,130 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0</v>
+        <v>-0.073832851750888</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0.06167801237304611</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.009038344828023633</v>
+        <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.02917850385974406</v>
+        <v>0.0245034813039324</v>
       </c>
       <c r="DJ5" t="n">
         <v>-0</v>
       </c>
       <c r="DK5" t="n">
-        <v>-0</v>
+        <v>0.04220620785160419</v>
       </c>
       <c r="DL5" t="n">
         <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>-0</v>
+        <v>-0.03453433118261568</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.02268202315284432</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>3.52778919315284e-07</v>
+        <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.04183525469840456</v>
+        <v>0.02431388384833857</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0</v>
+        <v>-0.008177560258946694</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
         <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>-0.1710106070484918</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.03475901329496348</v>
+        <v>-0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.003465133995857258</v>
+        <v>-0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.01364981760929834</v>
+        <v>-0.0181208874306336</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>0.03975461134503491</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
         <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.01965983724005753</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0.07529025602058678</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.0501451784231722</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.01778404754254192</v>
+        <v>0.03866789182557661</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>0.06226573666274811</v>
       </c>
       <c r="EM5" t="n">
         <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0</v>
+        <v>-0.03566006645165865</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0.01229759835857451</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.008759746191124722</v>
+        <v>-0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.009004129316237489</v>
+        <v>0.02222437283756182</v>
       </c>
       <c r="ET5" t="n">
         <v>0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>0.01025780059560935</v>
       </c>
       <c r="EV5" t="n">
         <v>-0</v>
@@ -3170,109 +3170,109 @@
         <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.06602333382210977</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0.05803566406712173</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.01961326287381505</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.0006673033674490106</v>
+        <v>0.03506151650410121</v>
       </c>
       <c r="FC5" t="n">
         <v>0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0</v>
+        <v>0.04863729690093081</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.07151901014542787</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.07221457655003478</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.02702084928001952</v>
+        <v>0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.01364380138920307</v>
+        <v>0.004260822048312872</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0.03852305282167397</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0</v>
+        <v>-0.0107065682687198</v>
       </c>
       <c r="FR5" t="n">
-        <v>-0.001197567567079032</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0.01782076105370404</v>
+        <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.002337989310202405</v>
+        <v>0.005767455097152811</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0</v>
+        <v>0.03505784616239327</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
         <v>-0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.08655565127134791</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.05390807300844973</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.02024655251633522</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
         <v>-0</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>0.1806407828432866</v>
       </c>
       <c r="GF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3337,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -3364,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -3391,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -3445,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
         <v>0</v>
@@ -3499,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
@@ -3526,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
         <v>0</v>
@@ -3607,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -3634,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS6" t="n">
         <v>0</v>
@@ -3849,22 +3849,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.252398744154272</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.4455760629490914</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8947310055314578</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.3041085984013</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4134335250056398</v>
+        <v>-0.006743610329542356</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3873,22 +3873,22 @@
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.284004016280436</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.4152576574293815</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.299091174549503</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.3387821473359149</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01170132309463737</v>
+        <v>-0.06318291834382236</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3897,214 +3897,214 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.07789465054390356</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.1769845436126745</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.2488604400342813</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>-0.01083885226992642</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.1946068520674726</v>
+        <v>0.143459926637666</v>
       </c>
       <c r="X7" t="n">
         <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.08798402502499676</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.1377179051384124</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.1541477846754265</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>9.151885110612083e-05</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2295398927423739</v>
+        <v>-0.02522275758571156</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.3218144767946606</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.007000445865510865</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.1892253221578322</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.1149991503188726</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.03090413184555033</v>
+        <v>-0.07070727523694696</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.8804906030665444</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.4825420558410646</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.9168849732011675</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>-0.06439091268294891</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.2481450126173574</v>
+        <v>0.2088440188511197</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB7" t="n">
         <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.1418738155977132</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.02719132652210001</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.1275782763549151</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>-0.08788290643116611</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.3335108300208502</v>
+        <v>-0.1094549328530433</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.2019596410399714</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.06438024714569722</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.3391185976759817</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>0.07213905901269999</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.3954552383853632</v>
+        <v>0.2050067101581966</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
         <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.7906883668417478</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.2166346105267306</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.4536708543364826</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>0.01180077790161953</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.1152213355117125</v>
+        <v>0.1195108594480982</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC7" t="n">
         <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.4039758061805686</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.1222616346406577</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.2329226947073365</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>0.03448385190292999</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.07648634921413609</v>
+        <v>-0.03138691555326227</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
@@ -4116,49 +4116,49 @@
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.05163405060527852</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>0.004231651107357583</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.08303215727785217</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.1904135015562961</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.2155468556191256</v>
+        <v>-0.150745853978354</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0.3467902976167519</v>
+        <v>-0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.1142039630352434</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.2148690067062256</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0.06982761398991796</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.2141467166549088</v>
+        <v>-0.02824620691059567</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
@@ -4170,22 +4170,22 @@
         <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.06706325164079451</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.1080932701912477</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.4476581011703608</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>-0.005582158656292769</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.06633158476963565</v>
+        <v>-0.01412072653562035</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
@@ -4197,28 +4197,28 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0.1194692465438673</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.006030941702173314</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.169451810986168</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0</v>
+        <v>-0.1107300618665427</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.1878379901933345</v>
+        <v>-0.07608414809096867</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU7" t="n">
         <v>0</v>
@@ -4227,73 +4227,73 @@
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.06779036441828026</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0</v>
+        <v>0.0646630914615962</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.0495292976013119</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>-0</v>
+        <v>0.007827651698988096</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.1143985947137888</v>
+        <v>-0.01458587917055509</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED7" t="n">
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0.5708342558846984</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.1185216890285587</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.2636446551950444</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0</v>
+        <v>0.06095883835186508</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.1358627959214225</v>
+        <v>0.07992132810813288</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
         <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0.08854193522983114</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.115144652072036</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.2163447665122231</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>0.0662566454047982</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.2130889270248852</v>
+        <v>-0.01306653633612702</v>
       </c>
       <c r="ET7" t="n">
         <v>-0</v>
@@ -4305,25 +4305,25 @@
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0.3906863104825065</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.1139927730419903</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.2343876129107682</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.04048420147406238</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.1753500144073099</v>
+        <v>-0.03000399156106575</v>
       </c>
       <c r="FC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
@@ -4332,55 +4332,55 @@
         <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0.3244427462168324</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>-0.001469546492849552</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.2050718793983756</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>0.1033866821379798</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.1419719292842993</v>
+        <v>-0.003274122916975363</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM7" t="n">
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
         <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0.125042577914609</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.004250349493744135</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.007012251263870153</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>0.04487710021738089</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.01432463291382566</v>
+        <v>-0.001508330873060902</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>0</v>
@@ -4389,16 +4389,16 @@
         <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.003871400960215233</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>0.0160400294067794</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.1833588475362762</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.1058364420517379</v>
       </c>
       <c r="GC7" t="n">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
         <v>-0</v>
@@ -4418,25 +4418,25 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2404127235737558</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.1972020054751076</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02930224763804738</v>
+        <v>-0.01558685433787569</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>-0.1231396370707967</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02313858497874183</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>-0</v>
@@ -4445,118 +4445,118 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2297603893848987</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0.1861828020258288</v>
       </c>
       <c r="L8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.09230375662543495</v>
+        <v>-0.0103155063492132</v>
       </c>
       <c r="O8" t="n">
-        <v>-0</v>
+        <v>-0.1902560143555095</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002187202240034276</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.003184945694323675</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.02844466550133989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.07165251052275487</v>
+        <v>-0.03061289678256857</v>
       </c>
       <c r="X8" t="n">
-        <v>-0</v>
+        <v>0.006854146032239612</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.07095543366190185</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01635525306948414</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.03264733313391156</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
         <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.01039006441898679</v>
+        <v>0.03382581125217318</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>-0.003861624518776668</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.02067914635102875</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.05778978650316567</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.01775213755335814</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.02323470547987475</v>
+        <v>-0.01823899586871976</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.04574422362505487</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.01813939741613477</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.1627090175623639</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.1578527287891762</v>
       </c>
       <c r="AV8" t="n">
         <v>-0</v>
@@ -4565,13 +4565,13 @@
         <v>-0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.01598057334128261</v>
+        <v>-0.03009066623931703</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0</v>
+        <v>-0.1060920313981854</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.06455124744401468</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
         <v>-0</v>
@@ -4580,25 +4580,25 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.03629931585979572</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.0533905961460187</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.005420817749759026</v>
+        <v>-0.01875711993082825</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>-0.0260917614106362</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0078699119876393</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -4607,10 +4607,10 @@
         <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.04077361226936106</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.0592088425318155</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -4619,13 +4619,13 @@
         <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.06813228861540008</v>
+        <v>0.01763217451831689</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0</v>
+        <v>0.02108543921541977</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.02060129231546844</v>
+        <v>-0</v>
       </c>
       <c r="BS8" t="n">
         <v>0</v>
@@ -4634,10 +4634,10 @@
         <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.1322356428883728</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.08191780786689601</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -4646,13 +4646,13 @@
         <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.01310536934873346</v>
+        <v>-0.007125005831504456</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0</v>
+        <v>-0.03847278849607353</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.03392038456150823</v>
+        <v>-0</v>
       </c>
       <c r="CB8" t="n">
         <v>-0</v>
@@ -4661,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.07086263896463478</v>
+        <v>-0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.04777368011568461</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4673,40 +4673,40 @@
         <v>-0</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.008168538985539165</v>
+        <v>-0.006358906338209396</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0</v>
+        <v>0.04169059791616035</v>
       </c>
       <c r="CJ8" t="n">
-        <v>-0.0157157864840313</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.001422122677328153</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.01786519925997607</v>
       </c>
       <c r="CO8" t="n">
         <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.06043222651119304</v>
+        <v>0.008243849787792825</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>-0.02700168368846984</v>
       </c>
       <c r="CS8" t="n">
-        <v>-0.03198078940537549</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
@@ -4715,10 +4715,10 @@
         <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.05983997751534077</v>
+        <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.03805565230960602</v>
       </c>
       <c r="CX8" t="n">
         <v>-0</v>
@@ -4727,13 +4727,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.004121590367814328</v>
+        <v>-0.008520932015773395</v>
       </c>
       <c r="DA8" t="n">
-        <v>0</v>
+        <v>0.04411783020122837</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0.007832307432404643</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
         <v>-0</v>
@@ -4742,37 +4742,37 @@
         <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.005020747643981463</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.04732746280423242</v>
       </c>
       <c r="DG8" t="n">
         <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>-0.01218544864535358</v>
+        <v>0.04279812006264715</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>-0.003812255310813603</v>
       </c>
       <c r="DK8" t="n">
-        <v>-0.001165239087226992</v>
+        <v>0</v>
       </c>
       <c r="DL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM8" t="n">
         <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0.008428929501497043</v>
+        <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0.02562372354210346</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
@@ -4781,13 +4781,13 @@
         <v>-0</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.03966546260924596</v>
+        <v>0.01710577946207813</v>
       </c>
       <c r="DS8" t="n">
-        <v>-0</v>
+        <v>0.006448372229485514</v>
       </c>
       <c r="DT8" t="n">
-        <v>-0.05652703548444029</v>
+        <v>0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
@@ -4796,118 +4796,118 @@
         <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0.002532900792430827</v>
+        <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>0.02740982527823174</v>
       </c>
       <c r="DY8" t="n">
         <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.0264681634850429</v>
+        <v>-0.01555094249676832</v>
       </c>
       <c r="EB8" t="n">
-        <v>0</v>
+        <v>-0.02523314648901329</v>
       </c>
       <c r="EC8" t="n">
-        <v>-0.004896210814336217</v>
+        <v>-0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
         <v>-0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0.1013581458035423</v>
+        <v>-0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.03550189648554335</v>
       </c>
       <c r="EH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.01760504710837746</v>
+        <v>0.00593347913968142</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.02482667443196165</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.03981262285169963</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
         <v>-0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.01698831475277857</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.01666830095076784</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.05495457809682066</v>
+        <v>-0.01238946730654401</v>
       </c>
       <c r="ET8" t="n">
-        <v>0</v>
+        <v>0.03271213422285889</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.01586663681515586</v>
+        <v>-0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.06268014621967014</v>
+        <v>-0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.03881320182765093</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.007184537922925283</v>
+        <v>-0.003489455518116033</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0</v>
+        <v>0.04610251647322518</v>
       </c>
       <c r="FD8" t="n">
-        <v>-0.004853024693862108</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>-0.05766222105936654</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0.004145394872816544</v>
       </c>
       <c r="FI8" t="n">
         <v>-0</v>
@@ -4916,90 +4916,90 @@
         <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.02893946847280684</v>
+        <v>-0.03060528580917432</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0</v>
+        <v>0.03346116436839619</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.02839612422709421</v>
+        <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>-0.008860393558544382</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>-0.002991917923197629</v>
       </c>
       <c r="FR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.007100095722011584</v>
+        <v>0.002759838109073959</v>
       </c>
       <c r="FU8" t="n">
-        <v>-0</v>
+        <v>0.02460694363349581</v>
       </c>
       <c r="FV8" t="n">
-        <v>-0.001876634999500243</v>
+        <v>-0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
         <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.03442486695417687</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>-0.01201408305352531</v>
       </c>
       <c r="GA8" t="n">
         <v>-0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0.03599993409051818</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.02465290498608692</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2222995872247432</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.03075147236292683</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07350294152383942</v>
+        <v>-0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5008,34 +5008,34 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.03798417462157866</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1803997787211195</v>
+        <v>-0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.01093808688907943</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.047708619100642</v>
+        <v>-0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.09935048303179961</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -5044,16 +5044,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.03548786629637603</v>
+        <v>-0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.008090027679149075</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.04377995264847252</v>
+        <v>-0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -5062,106 +5062,106 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.05684304811965536</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.04548513890703132</v>
+        <v>-0</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.001711674872304843</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.002216941602810426</v>
+        <v>-0</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.03073812343617534</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.09437876117449898</v>
+        <v>-0</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.002882931399924603</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.01074152826171187</v>
+        <v>-0</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.004358425399296486</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.1925278332070794</v>
+        <v>-0</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.008643749677359751</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0227914914029572</v>
+        <v>-0</v>
       </c>
       <c r="AY9" t="n">
         <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.05506300778917833</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.04334033407988562</v>
+        <v>-0</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0.01233272786911772</v>
+        <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.000793775563989208</v>
+        <v>-0</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.03909525700820082</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
@@ -5179,124 +5179,124 @@
         <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0.0009548647466856156</v>
+        <v>-0</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>-0.05505739345147025</v>
+        <v>0</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.06200628747769161</v>
+        <v>-0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.04013800016941547</v>
+        <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.0745948836663103</v>
+        <v>-0</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>-0.03425186538662834</v>
+        <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.01986695685974202</v>
+        <v>-0</v>
       </c>
       <c r="BZ9" t="n">
         <v>0</v>
       </c>
       <c r="CA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.04102549390033459</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD9" t="n">
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0.06235096686839815</v>
+        <v>-0</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.004660325575135876</v>
+        <v>0</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.03100497473146919</v>
+        <v>-0</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ9" t="n">
         <v>0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.0219600355029556</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
         <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0.03345645883711785</v>
+        <v>-0</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.01865945205523228</v>
+        <v>0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.09019266948585798</v>
+        <v>-0</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.01631321452427807</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0.05828590591259214</v>
+        <v>0</v>
       </c>
       <c r="CX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.009129950193044533</v>
+        <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.03105229162639924</v>
+        <v>0</v>
       </c>
       <c r="DA9" t="n">
         <v>0</v>
@@ -5305,52 +5305,52 @@
         <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.02067950052167591</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>-0.0284514419599914</v>
+        <v>-0</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.02305064132215894</v>
+        <v>0</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.03616011775704477</v>
+        <v>-0</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.02758050814423072</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>-0.02031462792724821</v>
+        <v>-0</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.01688669011056155</v>
+        <v>0</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.003296568796453191</v>
+        <v>-0</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.03382562000263418</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
         <v>0</v>
@@ -5368,52 +5368,52 @@
         <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.0161242380095566</v>
+        <v>0</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.03738600690610988</v>
+        <v>0</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.002882480541290192</v>
+        <v>0</v>
       </c>
       <c r="EB9" t="n">
         <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.01890291532821696</v>
+        <v>0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0.05605378212640975</v>
+        <v>-0</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.01526739683292866</v>
+        <v>0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.0668437714434071</v>
+        <v>-0</v>
       </c>
       <c r="EK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.01256859260528195</v>
+        <v>0</v>
       </c>
       <c r="EN9" t="n">
         <v>0</v>
@@ -5422,25 +5422,25 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>-0.02023046885467111</v>
+        <v>-0</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.05637258014805681</v>
+        <v>0</v>
       </c>
       <c r="ES9" t="n">
-        <v>-0.01609827661689894</v>
+        <v>-0</v>
       </c>
       <c r="ET9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.02848356222702478</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
         <v>0</v>
@@ -5449,25 +5449,25 @@
         <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0.05537649010688184</v>
+        <v>-0</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.003950724561725506</v>
+        <v>0</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.02216570088539582</v>
+        <v>-0</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.02963831378188294</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
         <v>0</v>
@@ -5476,79 +5476,79 @@
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0.03946978420515488</v>
+        <v>-0</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.02082863597054371</v>
+        <v>0</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.004951521548085197</v>
+        <v>-0</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM9" t="n">
         <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.01995666706782878</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0.006987742349776183</v>
+        <v>-0</v>
       </c>
       <c r="FR9" t="n">
         <v>0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.06211938902762989</v>
+        <v>0</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.008909958613014956</v>
+        <v>-0</v>
       </c>
       <c r="FU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW9" t="n">
-        <v>-0.02132848083632587</v>
+        <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0.005696224637799716</v>
+        <v>0</v>
       </c>
       <c r="GA9" t="n">
         <v>0</v>
       </c>
       <c r="GB9" t="n">
-        <v>-0.0523941119035509</v>
+        <v>0</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE9" t="n">
         <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0.007836341510649755</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
         <v>0</v>
@@ -5559,52 +5559,52 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2245412403974812</v>
+        <v>0.8348270013532564</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0171977630165903</v>
+        <v>-0.1928922286597414</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4225822323339326</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0</v>
+        <v>-0.6206120684111265</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.1847536418528576</v>
+        <v>0.7261114169484564</v>
       </c>
       <c r="L10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.05216843253967023</v>
+        <v>-0.433800255898227</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4679647864318306</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0</v>
+        <v>-1.080460706453065</v>
       </c>
       <c r="R10" t="n">
         <v>-0</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.020699736212328</v>
+        <v>0.3672846148023838</v>
       </c>
       <c r="U10" t="n">
         <v>-0</v>
@@ -5622,52 +5622,52 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.04307646384110285</v>
+        <v>0.3055026661308144</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1386087728547832</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
         <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0</v>
+        <v>-0.2121785373081751</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.03258303853885179</v>
+        <v>0.332517666763014</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.05799673051366273</v>
+        <v>-0.2259458599740988</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.05961893934437372</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0.3881449696969793</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.03723877513474161</v>
+        <v>0.1215764737511556</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -5676,79 +5676,79 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.03950074873919444</v>
+        <v>-0.01452735571944643</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.107800092970355</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>-0.2011266619307084</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0.1690406785492064</v>
+        <v>1.30692550689333</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.09397197127106476</v>
+        <v>0.5764026283372358</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.2026553488403784</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
         <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0</v>
+        <v>-0.07461953905174959</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0.05093728232338201</v>
+        <v>0.09980686723540562</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
         <v>-0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.07251151438480158</v>
+        <v>-0.3435565131048876</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.1041065675380241</v>
+        <v>-0</v>
       </c>
       <c r="BI10" t="n">
         <v>0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>-0.2816467346047613</v>
       </c>
       <c r="BK10" t="n">
         <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.04183468028867775</v>
+        <v>0.6843433952756947</v>
       </c>
       <c r="BN10" t="n">
         <v>0</v>
@@ -5757,133 +5757,133 @@
         <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.09138620645719607</v>
+        <v>0.8763412875366018</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.108534514062678</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>0.3526171564207326</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0.08152005390453511</v>
+        <v>0.6232804262360672</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.03952661448899063</v>
+        <v>0.3275339370060709</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.2225364842487576</v>
+        <v>0</v>
       </c>
       <c r="CA10" t="n">
         <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0.005965592994580752</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.05887071767948312</v>
+        <v>-0.2315112716368397</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.020163889156263</v>
+        <v>-0.009825684334269683</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.07200937500813186</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0</v>
+        <v>0.2421564068012171</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0.02506216333055465</v>
+        <v>-0.6186397959429448</v>
       </c>
       <c r="CO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
         <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.09039022910639156</v>
+        <v>-0.6665084022919777</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.09162829507636773</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
         <v>0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0</v>
+        <v>-0.2008247157968645</v>
       </c>
       <c r="CU10" t="n">
         <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.05838332789539923</v>
+        <v>-0.1833094359683755</v>
       </c>
       <c r="CX10" t="n">
         <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.01281158160693825</v>
+        <v>0.02106584646305081</v>
       </c>
       <c r="DA10" t="n">
-        <v>-0.06599413832390938</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0</v>
+        <v>0.1177904992255792</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
         <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.01928987000003815</v>
+        <v>-0.7742128212636097</v>
       </c>
       <c r="DG10" t="n">
         <v>-0</v>
@@ -5892,16 +5892,16 @@
         <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.02484840702353844</v>
+        <v>0.02791378291513351</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.04906825258714433</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
         <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0</v>
+        <v>0.009847316689250245</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
@@ -5910,88 +5910,88 @@
         <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0.03396040469761454</v>
+        <v>-0.2332865393575126</v>
       </c>
       <c r="DP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.01869458455086453</v>
+        <v>-0.08612550847129528</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.08195538625037982</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0</v>
+        <v>0.1884009538427947</v>
       </c>
       <c r="DV10" t="n">
         <v>-0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0.04752445861533536</v>
+        <v>0.01453415761358327</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.03481627753487039</v>
+        <v>-0.09647585325795509</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.03242143108808821</v>
+        <v>-0</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>-0</v>
+        <v>-0.2064653313402128</v>
       </c>
       <c r="EE10" t="n">
         <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.07912136595148675</v>
+        <v>0.06589399325275033</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
         <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.04839796906897598</v>
+        <v>0.02284350358122393</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.07524713351522842</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>0.2533758204255192</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.01901710253150276</v>
+        <v>-0.09357056407618662</v>
       </c>
       <c r="EQ10" t="n">
         <v>0</v>
@@ -6000,43 +6000,43 @@
         <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.04429470752910776</v>
+        <v>0.1430763525418063</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0.06816993096342287</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
         <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0</v>
+        <v>-0.06625778218301732</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.06704437461411066</v>
+        <v>-0.1678026449278512</v>
       </c>
       <c r="EZ10" t="n">
         <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.007346591506399954</v>
+        <v>0.0290716369076567</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0.08089976461289033</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>0.2308873496315992</v>
       </c>
       <c r="FF10" t="n">
         <v>0</v>
@@ -6045,252 +6045,252 @@
         <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.03872339505705236</v>
+        <v>-0.08509372635130735</v>
       </c>
       <c r="FI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.01369311317180682</v>
+        <v>-0.2081216822425785</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.1022956237986435</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>-0.03643724026298144</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.04213037638641599</v>
+        <v>0.0108468032514815</v>
       </c>
       <c r="FR10" t="n">
         <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.01292590207701604</v>
+        <v>0.04187559741933764</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.004783516621919436</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>-0</v>
+        <v>-0.2001523541034005</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0.01341937175987425</v>
+        <v>-0.4093546001562924</v>
       </c>
       <c r="GA10" t="n">
         <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC10" t="n">
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.04761136721793559</v>
+        <v>0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0</v>
+        <v>-0.3587393255204345</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0</v>
+        <v>-0.3052526313991936</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.6339299889530954</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0862154693787654</v>
+        <v>-0.2295209927449615</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2024643409154649</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.02311617917010615</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>-0.2202146154079925</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.5324507487087521</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05091205821459721</v>
+        <v>-0.4995927265637226</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1993451550789087</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.03312140230694344</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.01928062901122485</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.3500323973904965</v>
       </c>
       <c r="U11" t="n">
         <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.007857358995417453</v>
+        <v>0.1864118519114296</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03270055319774358</v>
+        <v>-0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0415790191007005</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0</v>
+        <v>0.02272493565054422</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.2167981033306876</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.06734572396900079</v>
+        <v>-0.1142781167581029</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.05122359847587525</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.06801273371195381</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0</v>
+        <v>-0.1315456380978523</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.2577565374688372</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.01727785154744001</v>
+        <v>0.01753022605060512</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.03415424667191723</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.006036624741346855</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0</v>
+        <v>0.2463246047220774</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.7574992817386718</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.009789360898248918</v>
+        <v>0.3648546399273114</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.05824144590842807</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="n">
         <v>-0</v>
       </c>
       <c r="BA11" t="n">
-        <v>-0.010154711127693</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>-0.1937384232392583</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>-0.06074680253556679</v>
       </c>
       <c r="BE11" t="n">
         <v>0</v>
@@ -6299,241 +6299,241 @@
         <v>-0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.03257893373459778</v>
+        <v>-0.3903961918688404</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.03922299683055821</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0.03265992363283494</v>
+        <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>-0.08405573661782771</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0</v>
+        <v>0.1470990857855402</v>
       </c>
       <c r="BN11" t="n">
         <v>-0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.009374723527525632</v>
+        <v>0.3906906701199697</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0.04316170657800417</v>
+        <v>-0</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>-0.01148393876346488</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>-0</v>
+        <v>0.1512665483348841</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.4597926369196908</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.0670450886172126</v>
+        <v>0.06781158054042694</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.1099050938482727</v>
+        <v>0</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.04911485031605667</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>0.05243362643577967</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0.1313741423994349</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.02184013683857396</v>
+        <v>-0.01125140363454328</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0.03451081876623707</v>
+        <v>0</v>
       </c>
       <c r="CJ11" t="n">
         <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.01253523294688436</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
         <v>-0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>-0.322860009621037</v>
       </c>
       <c r="CN11" t="n">
-        <v>0</v>
+        <v>-0.1337433074226779</v>
       </c>
       <c r="CO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
         <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.05380180385790991</v>
+        <v>-0.3736498237784419</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.06514364968727944</v>
+        <v>-0</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.02615088741630233</v>
+        <v>-0</v>
       </c>
       <c r="CU11" t="n">
         <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0</v>
+        <v>0.02276285422062202</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.1446369394842138</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.03246409035919028</v>
+        <v>0.01403406617051066</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0.03604393596888157</v>
+        <v>0</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.01901796865803161</v>
+        <v>-0</v>
       </c>
       <c r="DD11" t="n">
         <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0</v>
+        <v>0.300453368529279</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0.4905065118504928</v>
       </c>
       <c r="DG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.07980530652256616</v>
+        <v>0.05110760234141163</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.0005140678140202491</v>
+        <v>0</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>-0.01082761466988445</v>
+        <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN11" t="n">
-        <v>-0</v>
+        <v>-0.1749519459340669</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0.2126695704243778</v>
       </c>
       <c r="DP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.009789849067753367</v>
+        <v>-0.06316403812488366</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.03648225368582608</v>
+        <v>-0</v>
       </c>
       <c r="DT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.02220109133996146</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0</v>
+        <v>-0.05511221292927963</v>
       </c>
       <c r="DX11" t="n">
-        <v>0</v>
+        <v>0.1267343695114707</v>
       </c>
       <c r="DY11" t="n">
         <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.0003395245871042625</v>
+        <v>-0.1143816675463318</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.0006354521764862021</v>
+        <v>0</v>
       </c>
       <c r="EC11" t="n">
         <v>0</v>
       </c>
       <c r="ED11" t="n">
-        <v>-0.01009348587782551</v>
+        <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF11" t="n">
-        <v>0</v>
+        <v>-0.08605449433607222</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>0.181209347925702</v>
       </c>
       <c r="EH11" t="n">
         <v>0</v>
@@ -6542,133 +6542,133 @@
         <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.07820285056259006</v>
+        <v>0.009019342813549004</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0.05857571764182467</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>-0.01305010206390764</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
         <v>-0</v>
       </c>
       <c r="EO11" t="n">
-        <v>0</v>
+        <v>-0.03718476025415313</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0.1017025126660425</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>-0.001065983346214185</v>
+        <v>-0.02855165235294854</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0.04017401774708754</v>
+        <v>-0</v>
       </c>
       <c r="EU11" t="n">
         <v>-0</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.0257548911205045</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
         <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>0</v>
+        <v>0.04849822123289153</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.1297630275369616</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.02233753262829523</v>
+        <v>-0.05533569400167784</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0.03969873064926857</v>
+        <v>-0</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.02031658055113969</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
         <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0</v>
+        <v>0.192121765754151</v>
       </c>
       <c r="FH11" t="n">
-        <v>0</v>
+        <v>-0.09211553154906796</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.0006325862640222191</v>
+        <v>-0.09092359573032466</v>
       </c>
       <c r="FL11" t="n">
-        <v>-0.03862744662771393</v>
+        <v>0</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.01406298586408002</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0</v>
+        <v>-0.01446011860425461</v>
       </c>
       <c r="FQ11" t="n">
-        <v>-0</v>
+        <v>-0.03237792684535286</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.001368157213469852</v>
+        <v>0.01291698820847831</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.000990769417945962</v>
+        <v>-0</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>-0.02728369373867424</v>
+        <v>0</v>
       </c>
       <c r="FX11" t="n">
         <v>-0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0</v>
+        <v>-0.08156205300527614</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0</v>
+        <v>-0.1830566777509739</v>
       </c>
       <c r="GA11" t="n">
         <v>-0</v>
@@ -6680,13 +6680,13 @@
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.03785624827894288</v>
+        <v>-0</v>
       </c>
       <c r="GE11" t="n">
         <v>-0</v>
       </c>
       <c r="GF11" t="n">
-        <v>-0.0400652274266546</v>
+        <v>-0</v>
       </c>
       <c r="GG11" t="n">
         <v>-0</v>
@@ -6694,10 +6694,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2124242989704222</v>
+        <v>0.6233272425654103</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -6706,79 +6706,79 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07414978408200572</v>
+        <v>-0.3141189483150281</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3936692833186769</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0.3450006354070933</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.1811500704380135</v>
+        <v>0.4377578480166519</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.05107158548314496</v>
+        <v>-0.3328071142632696</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4379060214861201</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0.2881738188557555</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02129301989162244</v>
+        <v>0.2069069794435566</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0146333750245227</v>
+        <v>0.2117076974661315</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1086881551689665</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0</v>
+        <v>-0.0301421727889174</v>
       </c>
       <c r="Z12" t="n">
         <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.01670913137031919</v>
+        <v>0.2477399723218143</v>
       </c>
       <c r="AD12" t="n">
         <v>-0</v>
@@ -6787,16 +6787,16 @@
         <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.07937727615441745</v>
+        <v>0.05842286900360059</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.09393973986757746</v>
+        <v>-0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>-0.03682187056296536</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
@@ -6805,22 +6805,22 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.03098961813609661</v>
+        <v>0.07222457206245804</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.01022060156545064</v>
+        <v>-0.006841474410709776</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.0871327785047023</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0.08006017135218756</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -6832,49 +6832,49 @@
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0.1558160954530694</v>
+        <v>0.6549088414164453</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.04121408904432339</v>
+        <v>-0.0219652668784288</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.1237076334966296</v>
+        <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>-0.1842782797784158</v>
       </c>
       <c r="BA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC12" t="n">
         <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0.07773516558015196</v>
+        <v>0.1202588698135653</v>
       </c>
       <c r="BE12" t="n">
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.03423037950720365</v>
+        <v>-0.1386157373931558</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.1310015698711387</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0.1463344270210362</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
@@ -6886,7 +6886,7 @@
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.02086773109856162</v>
+        <v>0.1298622899040367</v>
       </c>
       <c r="BN12" t="n">
         <v>0</v>
@@ -6895,40 +6895,40 @@
         <v>-0</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.07836192168634298</v>
+        <v>0.2431616570116835</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0.1029602485145404</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>0</v>
+        <v>0.02736372763433995</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0.07167281079760687</v>
+        <v>0.2740356398820328</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.07958232628174393</v>
+        <v>-0.03309106637306988</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.164983172569726</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
-        <v>-0</v>
+        <v>-0.07542482844522717</v>
       </c>
       <c r="CB12" t="n">
         <v>-0</v>
@@ -6937,25 +6937,25 @@
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.05426155136875754</v>
+        <v>-0.1592266500607768</v>
       </c>
       <c r="CF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
         <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.006983818240916003</v>
+        <v>0.05612087589702432</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0.06382129014530537</v>
+        <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0.0791016063372</v>
       </c>
       <c r="CK12" t="n">
         <v>-0</v>
@@ -6967,34 +6967,34 @@
         <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.03813481566018213</v>
+        <v>-0.2452682562865022</v>
       </c>
       <c r="CO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.04448575812281994</v>
+        <v>-0.1568607283425592</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.09503725677464486</v>
+        <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0.004983897603303566</v>
       </c>
       <c r="CT12" t="n">
         <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.04662201529661428</v>
+        <v>-0.1251547595983434</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
@@ -7003,13 +7003,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.009749376113634314</v>
+        <v>0.04871008264462076</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0.0633940859023322</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>0.07351840303936252</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -7018,10 +7018,10 @@
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.01384478659422068</v>
+        <v>-0.3626682143882013</v>
       </c>
       <c r="DG12" t="n">
         <v>-0</v>
@@ -7030,43 +7030,43 @@
         <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.0005684833761560113</v>
+        <v>0.03359699895948875</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.03746207971918311</v>
+        <v>-0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0.09406716613775946</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>-0</v>
       </c>
       <c r="DN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.003416106647983345</v>
+        <v>-0.06626756986811398</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
         <v>0</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.02822454242375388</v>
+        <v>0.05797945813252981</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.06550145102228939</v>
+        <v>-0</v>
       </c>
       <c r="DT12" t="n">
-        <v>-0</v>
+        <v>-0.02038591417358633</v>
       </c>
       <c r="DU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
         <v>-0</v>
@@ -7075,49 +7075,49 @@
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0.006639594814116373</v>
+        <v>0.1705982653097012</v>
       </c>
       <c r="DY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.03284049666627874</v>
+        <v>-0.06580040032335306</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.01041686783448567</v>
+        <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0.002275511456605975</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.06790763265774827</v>
+        <v>-0.04230798882255116</v>
       </c>
       <c r="EH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI12" t="n">
         <v>-0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.1131033256328175</v>
+        <v>0.08839618321713059</v>
       </c>
       <c r="EK12" t="n">
-        <v>-0.08530723784750145</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>0.09586355622593863</v>
       </c>
       <c r="EM12" t="n">
         <v>-0</v>
@@ -7126,37 +7126,37 @@
         <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.01429632470808034</v>
+        <v>-0.06907705741091888</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
         <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0285157286595821</v>
+        <v>0.03742095971196316</v>
       </c>
       <c r="ET12" t="n">
-        <v>-0.1163707736775734</v>
+        <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>-0</v>
+        <v>-0.004496922298665264</v>
       </c>
       <c r="EV12" t="n">
         <v>-0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.0636872312394574</v>
+        <v>-0.1376596177917514</v>
       </c>
       <c r="EZ12" t="n">
         <v>0</v>
@@ -7165,43 +7165,43 @@
         <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.008151635443591022</v>
+        <v>0.05171259208458065</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0.07505076643225109</v>
+        <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0.0719848358938327</v>
       </c>
       <c r="FE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF12" t="n">
         <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.05157466688866706</v>
+        <v>-0.02911575073669125</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.009300363798082982</v>
+        <v>-0.1152940741533139</v>
       </c>
       <c r="FL12" t="n">
-        <v>-0.03243624229864265</v>
+        <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>0</v>
+        <v>0.06593500169011619</v>
       </c>
       <c r="FN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
         <v>-0</v>
@@ -7210,117 +7210,117 @@
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.06238183564136348</v>
+        <v>-0.008416567614344605</v>
       </c>
       <c r="FR12" t="n">
         <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.002137983774760396</v>
+        <v>0.01527848234985654</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.0001310405622603641</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0.00931381775846068</v>
       </c>
       <c r="FW12" t="n">
         <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0.04086300552704245</v>
+        <v>-0.1211258966109932</v>
       </c>
       <c r="GA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.04125190833127973</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>-0</v>
+        <v>-0.02687541319639537</v>
       </c>
       <c r="GF12" t="n">
         <v>-0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>1.024972505382257</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002957345172844639</v>
+        <v>-0.3511377513169431</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3646787703571361</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.2526896984478022</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0.5278470127949866</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0.7669457709385006</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.05355983569653444</v>
+        <v>-0.3500340443024298</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3535656348614919</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.2948693565945305</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>-0.4898629447211578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.3087307865701762</v>
       </c>
       <c r="U13" t="n">
         <v>-0</v>
@@ -7329,133 +7329,133 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.03833756815783878</v>
+        <v>0.03651105594204258</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1088181647410946</v>
+        <v>-0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.006980379072990991</v>
+        <v>-0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>-0.09468951455221505</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.3431419288313772</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE13" t="n">
         <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.1741781695456164</v>
+        <v>-0.09504969845608763</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.07405442742678728</v>
+        <v>-0</v>
       </c>
       <c r="AH13" t="n">
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.05863056292146056</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>-0.03199682594288976</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>0.1787105022546429</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.06357838137239429</v>
+        <v>0.002002343820584037</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.01766782918948166</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0.008039572751966964</v>
+        <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0.03817298649120922</v>
       </c>
       <c r="AT13" t="n">
         <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0</v>
+        <v>0.9501960188037181</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.02908333601738588</v>
+        <v>0.07541337939820995</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.155831452401849</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0.07068454697484576</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0</v>
+        <v>-0.2978685892114537</v>
       </c>
       <c r="BC13" t="n">
         <v>-0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.1380117447041011</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.007292637977395928</v>
+        <v>-0.298961956203452</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.06168296460280438</v>
+        <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.1238555084368746</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>-0.2164063461458012</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.1146746272045463</v>
       </c>
       <c r="BN13" t="n">
         <v>-0</v>
@@ -7464,106 +7464,106 @@
         <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.002261855771832126</v>
+        <v>0.3849635514058635</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0.05767505463557377</v>
+        <v>-0</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
       </c>
       <c r="BS13" t="n">
-        <v>-0.01190271038595979</v>
+        <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0.01930213888111602</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0</v>
+        <v>0.5628297975148089</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
         <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.04041855892959787</v>
+        <v>0.0787867676309482</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.2088829076879067</v>
+        <v>-0</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0.05572551545550232</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0</v>
+        <v>-0.1114099009112657</v>
       </c>
       <c r="CD13" t="n">
         <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.229549841097109</v>
       </c>
       <c r="CF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.02147999623523375</v>
+        <v>0.01464123852476682</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0.05115887321081108</v>
+        <v>0</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.05492935735026052</v>
+        <v>-0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0</v>
+        <v>0.1658225534714116</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0.3099232573917902</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.0002169007278743523</v>
+        <v>-0.2982532066523036</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.06052769905670081</v>
+        <v>0</v>
       </c>
       <c r="CS13" t="n">
         <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>-0.05612442195213754</v>
+        <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0</v>
+        <v>0.06324279687198262</v>
       </c>
       <c r="CV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.1979721869477692</v>
       </c>
       <c r="CX13" t="n">
         <v>-0</v>
@@ -7572,25 +7572,25 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.009235292330108525</v>
+        <v>0.02332878148375667</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0.06651919783045446</v>
+        <v>0</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.06530499026646315</v>
+        <v>0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>0.128476895852236</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.5146773210041986</v>
       </c>
       <c r="DG13" t="n">
         <v>-0</v>
@@ -7599,52 +7599,52 @@
         <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.05818287299843742</v>
+        <v>0.1185580592590236</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0.01486009377220127</v>
+        <v>-0</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.00653800260051459</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0</v>
+        <v>0.02687870415910539</v>
       </c>
       <c r="DN13" t="n">
         <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.1314607924624603</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.03262770715484797</v>
+        <v>0.01513048523197253</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.04948076552696332</v>
+        <v>-0</v>
       </c>
       <c r="DT13" t="n">
         <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.01481683275072629</v>
+        <v>0</v>
       </c>
       <c r="DV13" t="n">
-        <v>-0</v>
+        <v>-0.02485654770335514</v>
       </c>
       <c r="DW13" t="n">
         <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>0.1671326050867656</v>
       </c>
       <c r="DY13" t="n">
         <v>-0</v>
@@ -7653,25 +7653,25 @@
         <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.005947659802044751</v>
+        <v>-0.08174399202466791</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0.002873849087721436</v>
+        <v>-0</v>
       </c>
       <c r="EC13" t="n">
         <v>-0</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.02695643353926908</v>
+        <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>0</v>
+        <v>0.0175626054250582</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>-0</v>
+        <v>-0.02363652084842552</v>
       </c>
       <c r="EH13" t="n">
         <v>0</v>
@@ -7680,79 +7680,79 @@
         <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.04540377328865824</v>
+        <v>0.05379830167694476</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0.0992444203705608</v>
+        <v>0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.05020299991789857</v>
+        <v>0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0</v>
+        <v>0.2181028495913925</v>
       </c>
       <c r="EO13" t="n">
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0.1402505414597407</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.05135803255282153</v>
+        <v>-0.02827179400995532</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0.04950896124100396</v>
+        <v>-0</v>
       </c>
       <c r="EU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.04171585860201681</v>
+        <v>-0</v>
       </c>
       <c r="EW13" t="n">
-        <v>0</v>
+        <v>0.02585623760623415</v>
       </c>
       <c r="EX13" t="n">
         <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.2277647752194859</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.0276208098660716</v>
+        <v>0.002323848327599822</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0.06730188758811935</v>
+        <v>-0</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.06218831527747025</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
-        <v>0</v>
+        <v>0.1190080377813645</v>
       </c>
       <c r="FG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0</v>
+        <v>-0.1090866770028764</v>
       </c>
       <c r="FI13" t="n">
         <v>-0</v>
@@ -7761,96 +7761,96 @@
         <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.024968089017567</v>
+        <v>-0.09325554892777353</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0.05852961451114296</v>
+        <v>0</v>
       </c>
       <c r="FM13" t="n">
         <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>-0.02730463728954583</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>-0.1302730159578485</v>
       </c>
       <c r="FP13" t="n">
         <v>-0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0</v>
+        <v>-0.01304875146824822</v>
       </c>
       <c r="FR13" t="n">
         <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.0001591144418986156</v>
+        <v>0.01145042288042497</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0.01224679837926871</v>
+        <v>0</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.008764604670524834</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0.04039758136782594</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0</v>
+        <v>-0.2438869435153269</v>
       </c>
       <c r="GA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
         <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.06466308100179399</v>
+        <v>-0</v>
       </c>
       <c r="GE13" t="n">
         <v>-0</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0.02410050486242687</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>-0</v>
+        <v>-0.05942325822669611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2286941063018202</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03244564713060928</v>
+        <v>-0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.04642449140181222</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -7859,85 +7859,85 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.226143839936174</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03084180737183923</v>
+        <v>-0</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.08018752082424414</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.007064430765118707</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.06516171814243137</v>
+        <v>-0</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.05593020039561229</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.007547425067642805</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1218983468744866</v>
+        <v>-0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.03933647787748543</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
@@ -7946,43 +7946,43 @@
         <v>-0</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.06598806092119511</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0315225271419152</v>
+        <v>-0</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0.01958848859506632</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.09916489231132604</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.05565399533828175</v>
+        <v>-0</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0.01331635224497451</v>
+        <v>0</v>
       </c>
       <c r="AZ14" t="n">
         <v>0</v>
@@ -7994,22 +7994,22 @@
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.0387516999990976</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.05716525292406412</v>
+        <v>-0</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0.01771520555459498</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
@@ -8021,55 +8021,55 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0.0299117467160175</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.05804231603554951</v>
+        <v>-0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0.01076696134888252</v>
+        <v>0</v>
       </c>
       <c r="BR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT14" t="n">
         <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.07261126377027068</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
         <v>0</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.02818911262378785</v>
+        <v>-0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-0.05903554515101754</v>
+        <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="n">
         <v>0</v>
@@ -8081,16 +8081,16 @@
         <v>-0</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0.04330334413036968</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.01813872398736798</v>
+        <v>-0</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.01500542525753615</v>
+        <v>0</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
@@ -8099,58 +8099,58 @@
         <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
         <v>-0</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.04351119274611695</v>
+        <v>0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.09077972903197062</v>
+        <v>-0</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0.001936630501003517</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
       </c>
       <c r="CX14" t="n">
-        <v>-0.03797616507881672</v>
+        <v>0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.001981097203690249</v>
+        <v>0</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.01641458329069618</v>
+        <v>0</v>
       </c>
       <c r="DB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
         <v>0</v>
@@ -8162,22 +8162,22 @@
         <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0.02893516654758244</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.04836571325608093</v>
+        <v>-0</v>
       </c>
       <c r="DJ14" t="n">
-        <v>-0.08817521966124293</v>
+        <v>0</v>
       </c>
       <c r="DK14" t="n">
         <v>0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
         <v>0</v>
@@ -8189,16 +8189,16 @@
         <v>-0</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0.01283892031361841</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.03319664155953102</v>
+        <v>-0</v>
       </c>
       <c r="DS14" t="n">
-        <v>-0.006661095709100321</v>
+        <v>0</v>
       </c>
       <c r="DT14" t="n">
         <v>0</v>
@@ -8210,49 +8210,49 @@
         <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.01772357970135089</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.03381892339288578</v>
+        <v>0</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.008643104987519787</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
         <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF14" t="n">
         <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0.0463620169129251</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.02355454115873534</v>
+        <v>-0</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.03361976301816199</v>
+        <v>0</v>
       </c>
       <c r="EL14" t="n">
         <v>0</v>
@@ -8264,49 +8264,49 @@
         <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0.003633918673043778</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
         <v>0</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.01857944235467495</v>
+        <v>-0</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.05582443110397285</v>
+        <v>0</v>
       </c>
       <c r="EU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV14" t="n">
         <v>0</v>
       </c>
       <c r="EW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX14" t="n">
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0.04276208647777539</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
         <v>0</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.006794969003147871</v>
+        <v>-0</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.009079328402817216</v>
+        <v>0</v>
       </c>
       <c r="FD14" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
         <v>0</v>
@@ -8324,22 +8324,22 @@
         <v>-0</v>
       </c>
       <c r="FI14" t="n">
-        <v>-0.03848358635505928</v>
+        <v>0</v>
       </c>
       <c r="FJ14" t="n">
         <v>0</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.01554924803422363</v>
+        <v>-0</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.01891173451469035</v>
+        <v>0</v>
       </c>
       <c r="FM14" t="n">
         <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
         <v>0</v>
@@ -8351,51 +8351,620 @@
         <v>-0</v>
       </c>
       <c r="FR14" t="n">
-        <v>-0.0004001403545043375</v>
+        <v>0</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT14" t="n">
-        <v>-0.00754796659582575</v>
+        <v>-0</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.01034229013570186</v>
+        <v>0</v>
       </c>
       <c r="FV14" t="n">
         <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX14" t="n">
         <v>0</v>
       </c>
       <c r="FY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ14" t="n">
         <v>0</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.02183613414842346</v>
+        <v>0</v>
       </c>
       <c r="GB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.0003891599523202803</v>
+        <v>0</v>
       </c>
       <c r="GE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
         <v>0</v>
       </c>
       <c r="GG14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2917791447199819</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.09659102802064227</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.1488436280726693</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2195811948985459</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.05610464473224834</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.1971558997490328</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.07056614395015651</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.004662397774925435</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.007952321558101142</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.09735190194413715</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.01308721469816153</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.007753222188768296</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.08443070023770997</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.002959237270708554</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.02984375967161149</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.2562777550632507</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-0.0665177820009293</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>-0.005728344423768481</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.03079187008431277</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>-0.04653873771606384</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>-0.1576075772036674</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0.05978330948294158</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>-0.02628905341576143</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0.07971734591137487</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0.1347538674937447</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>-0.06769494944545131</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0.00982834317156733</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>-0.05096081710179302</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0.007279672879984789</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0.02894610524908307</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>-0.03543702663229011</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>-0.004082435416427574</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0.01267159484859716</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>-0.03388117787035383</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>-0.000159807685859587</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>0.01635978018883025</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>-0.05559471372939284</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>-0.0004000776498675392</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>-0.01926051769849174</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>-0.01636712195776535</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>0.001283778571662292</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>0.01488696827888524</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>0.0207355287767412</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>-0.009300089446034219</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>-0.006235462524617879</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>-0.009396011099826114</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>-0.005001954380826972</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>0.05086126494596227</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>-0.01936659079282355</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>-0.04534204315976578</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>0.04104036668983279</v>
+      </c>
+      <c r="ET15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EU15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>-0.04053624957012082</v>
+      </c>
+      <c r="EZ15" t="n">
+        <v>0.004474031886710229</v>
+      </c>
+      <c r="FA15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FB15" t="n">
+        <v>0.03061319508403231</v>
+      </c>
+      <c r="FC15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FD15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FG15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FH15" t="n">
+        <v>-0.03576088084029022</v>
+      </c>
+      <c r="FI15" t="n">
+        <v>-0.03051623856007338</v>
+      </c>
+      <c r="FJ15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FK15" t="n">
+        <v>-0.05717478813119291</v>
+      </c>
+      <c r="FL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FQ15" t="n">
+        <v>0.000170748093561786</v>
+      </c>
+      <c r="FR15" t="n">
+        <v>0.01577406727397453</v>
+      </c>
+      <c r="FS15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FT15" t="n">
+        <v>-0.002401510648538843</v>
+      </c>
+      <c r="FU15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FV15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FZ15" t="n">
+        <v>-0.01352725690314371</v>
+      </c>
+      <c r="GA15" t="n">
+        <v>0.02415760502236224</v>
+      </c>
+      <c r="GB15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GC15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GD15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GE15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG15" t="n">
         <v>0</v>
       </c>
     </row>
